--- a/Clean Data/gramskgbody.xlsx
+++ b/Clean Data/gramskgbody.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20390" windowHeight="8370" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20390" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="78">
   <si>
     <t>Country of the dietary survey</t>
   </si>
@@ -56,9 +56,6 @@
     <t>99th percentile of consumption in grams/ kg body weight per day</t>
   </si>
   <si>
-    <t>Comment</t>
-  </si>
-  <si>
     <t>United Kingdom</t>
   </si>
   <si>
@@ -66,9 +63,6 @@
   </si>
   <si>
     <t>Infants</t>
-  </si>
-  <si>
-    <t>Grains and grain-based products</t>
   </si>
   <si>
     <t>A.01.000001</t>
@@ -104,49 +98,25 @@
     <t>Very elderly</t>
   </si>
   <si>
-    <t>Meat and meat products (including edible offal)</t>
-  </si>
-  <si>
     <t>A.01.000727</t>
-  </si>
-  <si>
-    <t>Fish and other seafood (including amphibians, rept</t>
   </si>
   <si>
     <t>A.01.000876</t>
   </si>
   <si>
-    <t>Vegetables and vegetable products (including fungi</t>
-  </si>
-  <si>
     <t>A.01.000317</t>
-  </si>
-  <si>
-    <t>Fruit and fruit products</t>
   </si>
   <si>
     <t>A.01.000544</t>
   </si>
   <si>
-    <t>Eggs and egg products</t>
-  </si>
-  <si>
     <t>A.01.001252</t>
-  </si>
-  <si>
-    <t>Milk and dairy products</t>
   </si>
   <si>
     <t>A.01.000948</t>
   </si>
   <si>
-    <t>Sugar and confectionary</t>
-  </si>
-  <si>
     <t>A.01.001267</t>
-  </si>
-  <si>
-    <t>Snacks, desserts, and other foods</t>
   </si>
   <si>
     <t>A.01.001878</t>
@@ -182,9 +152,6 @@
     <t>A.01.001771</t>
   </si>
   <si>
-    <t>Non-alcoholic beverages (excepting milk based beve</t>
-  </si>
-  <si>
     <t>Soft drinks</t>
   </si>
   <si>
@@ -201,9 +168,6 @@
   </si>
   <si>
     <t>A.01.001522</t>
-  </si>
-  <si>
-    <t>Alcoholic beverages</t>
   </si>
   <si>
     <t>Beer and beer-like beverage</t>
@@ -259,14 +223,47 @@
   <si>
     <t>A.01.001569</t>
   </si>
+  <si>
+    <t>fish and other seafood</t>
+  </si>
+  <si>
+    <t>meat and meat products</t>
+  </si>
+  <si>
+    <t>grains and grain-based products</t>
+  </si>
+  <si>
+    <t>vegetables and vegetable products</t>
+  </si>
+  <si>
+    <t>fruit and fruit products</t>
+  </si>
+  <si>
+    <t>eggs and egg products</t>
+  </si>
+  <si>
+    <t>milk and dairy products</t>
+  </si>
+  <si>
+    <t>sugar and confectionary</t>
+  </si>
+  <si>
+    <t>non-alcoholic beverages</t>
+  </si>
+  <si>
+    <t>alcoholic beverages</t>
+  </si>
+  <si>
+    <t>snacks, desserts, and other foods</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.0%;[Red]\-0.0%"/>
-    <numFmt numFmtId="166" formatCode="#,##0;\(#,##0\)"/>
+    <numFmt numFmtId="164" formatCode="0.0%;[Red]\-0.0%"/>
+    <numFmt numFmtId="165" formatCode="#,##0;\(#,##0\)"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -382,16 +379,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -669,18 +666,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L205"/>
+  <dimension ref="A1:K205"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="G128" sqref="G128"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="4" max="4" width="45.1796875" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.08984375" customWidth="1"/>
+    <col min="5" max="5" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6328125" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="62" customHeight="1">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="62" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -714,25 +721,22 @@
       <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="F2" s="6">
         <v>1154</v>
@@ -752,25 +756,22 @@
       <c r="K2" s="8">
         <v>17.6551724137931</v>
       </c>
-      <c r="L2" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="C3" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F3" s="6">
         <v>1307</v>
@@ -790,25 +791,22 @@
       <c r="K3" s="8">
         <v>21.539728154899599</v>
       </c>
-      <c r="L3" s="9" t="s">
+    </row>
+    <row r="4" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="C4" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F4" s="6">
         <v>1721</v>
@@ -828,25 +826,22 @@
       <c r="K4" s="8">
         <v>7.4450055991041397</v>
       </c>
-      <c r="L4" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="5" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F5" s="6">
         <v>185</v>
@@ -866,25 +861,22 @@
       <c r="K5" s="8">
         <v>22.681451612903199</v>
       </c>
-      <c r="L5" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="6" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="D6" s="4" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F6" s="6">
         <v>651</v>
@@ -904,25 +896,22 @@
       <c r="K6" s="8">
         <v>16.567924528301901</v>
       </c>
-      <c r="L6" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="7" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F7" s="6">
         <v>665</v>
@@ -942,25 +931,22 @@
       <c r="K7" s="8">
         <v>10.4037220843672</v>
       </c>
-      <c r="L7" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="8" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F8" s="6">
         <v>1265</v>
@@ -980,25 +966,22 @@
       <c r="K8" s="8">
         <v>6.63846737481032</v>
       </c>
-      <c r="L8" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="9" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F9" s="6">
         <v>166</v>
@@ -1018,25 +1001,22 @@
       <c r="K9" s="8">
         <v>6.46514705882353</v>
       </c>
-      <c r="L9" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="10" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F10" s="6">
         <v>139</v>
@@ -1056,25 +1036,22 @@
       <c r="K10" s="8">
         <v>5.78095238095238</v>
       </c>
-      <c r="L10" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="11" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="D11" s="4" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F11" s="6">
         <v>860</v>
@@ -1094,25 +1071,22 @@
       <c r="K11" s="8">
         <v>8.2979797979797993</v>
       </c>
-      <c r="L11" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="12" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="C12" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F12" s="6">
         <v>1182</v>
@@ -1132,25 +1106,22 @@
       <c r="K12" s="8">
         <v>7.4705882352941204</v>
       </c>
-      <c r="L12" s="9" t="s">
+    </row>
+    <row r="13" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="C13" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F13" s="6">
         <v>1697</v>
@@ -1170,25 +1141,22 @@
       <c r="K13" s="8">
         <v>3.4811804798255199</v>
       </c>
-      <c r="L13" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="14" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F14" s="6">
         <v>169</v>
@@ -1208,25 +1176,22 @@
       <c r="K14" s="8">
         <v>7.9918032786885203</v>
       </c>
-      <c r="L14" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="15" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="D15" s="4" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F15" s="6">
         <v>630</v>
@@ -1246,25 +1211,22 @@
       <c r="K15" s="8">
         <v>6.6595744680851103</v>
       </c>
-      <c r="L15" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="16" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F16" s="6">
         <v>642</v>
@@ -1284,25 +1246,22 @@
       <c r="K16" s="8">
         <v>4.2995495495495497</v>
       </c>
-      <c r="L16" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="17" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F17" s="6">
         <v>1196</v>
@@ -1322,25 +1281,22 @@
       <c r="K17" s="8">
         <v>3.7152777777777799</v>
       </c>
-      <c r="L17" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="18" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="F18" s="6">
         <v>159</v>
@@ -1360,25 +1316,22 @@
       <c r="K18" s="8">
         <v>2.7397260273972601</v>
       </c>
-      <c r="L18" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="19" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F19" s="6">
         <v>127</v>
@@ -1398,25 +1351,22 @@
       <c r="K19" s="8">
         <v>2.5203125000000002</v>
       </c>
-      <c r="L19" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="20" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="D20" s="4" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F20" s="6">
         <v>473</v>
@@ -1436,25 +1386,22 @@
       <c r="K20" s="8">
         <v>5.8258426966292101</v>
       </c>
-      <c r="L20" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="21" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="C21" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F21" s="6">
         <v>676</v>
@@ -1474,25 +1421,22 @@
       <c r="K21" s="8">
         <v>5.0961538461538503</v>
       </c>
-      <c r="L21" s="9" t="s">
+    </row>
+    <row r="22" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="C22" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F22" s="6">
         <v>1280</v>
@@ -1512,25 +1456,22 @@
       <c r="K22" s="8">
         <v>1.9578248666853799</v>
       </c>
-      <c r="L22" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="23" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F23" s="6">
         <v>109</v>
@@ -1550,25 +1491,22 @@
       <c r="K23" s="8">
         <v>5.2460629921259798</v>
       </c>
-      <c r="L23" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="24" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="D24" s="4" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F24" s="6">
         <v>376</v>
@@ -1588,25 +1526,22 @@
       <c r="K24" s="8">
         <v>3.61301369863014</v>
       </c>
-      <c r="L24" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="25" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F25" s="6">
         <v>282</v>
@@ -1626,25 +1561,22 @@
       <c r="K25" s="8">
         <v>2.2511848341232201</v>
       </c>
-      <c r="L25" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="26" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F26" s="6">
         <v>709</v>
@@ -1664,25 +1596,22 @@
       <c r="K26" s="8">
         <v>2.1560150375939799</v>
       </c>
-      <c r="L26" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="27" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F27" s="6">
         <v>123</v>
@@ -1702,25 +1631,22 @@
       <c r="K27" s="8">
         <v>2.0463320463320498</v>
       </c>
-      <c r="L27" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="28" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C28" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="F28" s="6">
         <v>100</v>
@@ -1740,25 +1666,22 @@
       <c r="K28" s="8">
         <v>1.6370869033047699</v>
       </c>
-      <c r="L28" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="29" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="C29" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="D29" s="4" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F29" s="6">
         <v>1043</v>
@@ -1778,25 +1701,22 @@
       <c r="K29" s="8">
         <v>20.610777765198701</v>
       </c>
-      <c r="L29" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="30" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="C30" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F30" s="6">
         <v>1189</v>
@@ -1816,25 +1736,22 @@
       <c r="K30" s="8">
         <v>16.245283018867902</v>
       </c>
-      <c r="L30" s="9" t="s">
+    </row>
+    <row r="31" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A31" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="C31" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F31" s="6">
         <v>1720</v>
@@ -1854,25 +1771,22 @@
       <c r="K31" s="8">
         <v>5.37728303012228</v>
       </c>
-      <c r="L31" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="32" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F32" s="6">
         <v>166</v>
@@ -1892,25 +1806,22 @@
       <c r="K32" s="8">
         <v>12.580645161290301</v>
       </c>
-      <c r="L32" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="33" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="D33" s="4" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F33" s="6">
         <v>586</v>
@@ -1930,25 +1841,22 @@
       <c r="K33" s="8">
         <v>13.3118811881188</v>
       </c>
-      <c r="L33" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="34" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A34" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F34" s="6">
         <v>602</v>
@@ -1968,25 +1876,22 @@
       <c r="K34" s="8">
         <v>5.8810795454545497</v>
       </c>
-      <c r="L34" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="35" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F35" s="6">
         <v>1222</v>
@@ -2006,25 +1911,22 @@
       <c r="K35" s="8">
         <v>6.1011187607573198</v>
       </c>
-      <c r="L35" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="36" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A36" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F36" s="6">
         <v>161</v>
@@ -2044,25 +1946,22 @@
       <c r="K36" s="8">
         <v>6.6478342749529196</v>
       </c>
-      <c r="L36" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="37" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A37" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F37" s="6">
         <v>133</v>
@@ -2082,25 +1981,22 @@
       <c r="K37" s="8">
         <v>4.3620414673046204</v>
       </c>
-      <c r="L37" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" s="1" customFormat="1" ht="12" customHeight="1">
+    </row>
+    <row r="38" spans="1:11" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="C38" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="D38" s="4" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F38" s="6">
         <v>1136</v>
@@ -2120,25 +2016,22 @@
       <c r="K38" s="8">
         <v>24.657738095238098</v>
       </c>
-      <c r="L38" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="39" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="C39" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F39" s="6">
         <v>1240</v>
@@ -2158,25 +2051,22 @@
       <c r="K39" s="8">
         <v>25.322500000000002</v>
       </c>
-      <c r="L39" s="9" t="s">
+    </row>
+    <row r="40" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A40" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="C40" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F40" s="6">
         <v>1483</v>
@@ -2196,25 +2086,22 @@
       <c r="K40" s="8">
         <v>7.2257891920813302</v>
       </c>
-      <c r="L40" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="41" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A41" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F41" s="6">
         <v>174</v>
@@ -2234,25 +2121,22 @@
       <c r="K41" s="8">
         <v>26.087209302325601</v>
       </c>
-      <c r="L41" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="42" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A42" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B42" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="D42" s="4" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F42" s="6">
         <v>618</v>
@@ -2272,25 +2156,22 @@
       <c r="K42" s="8">
         <v>16.734693877550999</v>
       </c>
-      <c r="L42" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="43" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A43" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F43" s="6">
         <v>503</v>
@@ -2310,25 +2191,22 @@
       <c r="K43" s="8">
         <v>7.0278637770897801</v>
       </c>
-      <c r="L43" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="44" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A44" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F44" s="6">
         <v>1027</v>
@@ -2348,25 +2226,22 @@
       <c r="K44" s="8">
         <v>6.3125978090766797</v>
       </c>
-      <c r="L44" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="45" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A45" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F45" s="6">
         <v>147</v>
@@ -2386,25 +2261,22 @@
       <c r="K45" s="8">
         <v>7.1559810671256496</v>
       </c>
-      <c r="L45" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="46" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A46" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F46" s="6">
         <v>128</v>
@@ -2424,25 +2296,22 @@
       <c r="K46" s="8">
         <v>5.8746736292428201</v>
       </c>
-      <c r="L46" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="47" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="C47" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="D47" s="4" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F47" s="6">
         <v>236</v>
@@ -2462,25 +2331,22 @@
       <c r="K47" s="8">
         <v>6.2637362637362601</v>
       </c>
-      <c r="L47" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="48" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="C48" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F48" s="6">
         <v>454</v>
@@ -2500,25 +2366,22 @@
       <c r="K48" s="8">
         <v>5</v>
       </c>
-      <c r="L48" s="9" t="s">
+    </row>
+    <row r="49" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A49" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="C49" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F49" s="6">
         <v>1489</v>
@@ -2538,25 +2401,22 @@
       <c r="K49" s="8">
         <v>1.1835241596638699</v>
       </c>
-      <c r="L49" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="50" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A50" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F50" s="6">
         <v>50</v>
@@ -2576,25 +2436,22 @@
       <c r="K50" s="8">
         <v>3.0083333333333302</v>
       </c>
-      <c r="L50" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="51" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A51" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B51" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="D51" s="4" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F51" s="6">
         <v>183</v>
@@ -2614,25 +2471,22 @@
       <c r="K51" s="8">
         <v>3.34731543624161</v>
       </c>
-      <c r="L51" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="52" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A52" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F52" s="6">
         <v>180</v>
@@ -2652,25 +2506,22 @@
       <c r="K52" s="8">
         <v>1.9908466819221999</v>
       </c>
-      <c r="L52" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="53" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A53" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F53" s="6">
         <v>380</v>
@@ -2690,25 +2541,22 @@
       <c r="K53" s="8">
         <v>1.2620772946859899</v>
       </c>
-      <c r="L53" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="54" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A54" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F54" s="6">
         <v>83</v>
@@ -2728,25 +2576,22 @@
       <c r="K54" s="8">
         <v>1.1672473867595801</v>
       </c>
-      <c r="L54" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" s="1" customFormat="1" ht="14.25" customHeight="1">
+    </row>
+    <row r="55" spans="1:11" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="A55" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F55" s="6">
         <v>58</v>
@@ -2766,25 +2611,22 @@
       <c r="K55" s="8">
         <v>0.90099388379204903</v>
       </c>
-      <c r="L55" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" s="1" customFormat="1" ht="14.25" customHeight="1">
+    </row>
+    <row r="56" spans="1:11" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="A56" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="C56" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C56" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="D56" s="4" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F56" s="6">
         <v>1196</v>
@@ -2804,25 +2646,22 @@
       <c r="K56" s="8">
         <v>146.328125</v>
       </c>
-      <c r="L56" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" s="1" customFormat="1" ht="11" customHeight="1">
+    </row>
+    <row r="57" spans="1:11" s="1" customFormat="1" ht="11" customHeight="1">
       <c r="A57" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="C57" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F57" s="6">
         <v>676</v>
@@ -2842,25 +2681,22 @@
       <c r="K57" s="8">
         <v>5.0961538461538503</v>
       </c>
-      <c r="L57" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" s="1" customFormat="1" ht="14.25" customHeight="1">
+    </row>
+    <row r="58" spans="1:11" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="A58" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="C58" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F58" s="6">
         <v>1299</v>
@@ -2880,25 +2716,22 @@
       <c r="K58" s="8">
         <v>87.796391752577307</v>
       </c>
-      <c r="L58" s="9" t="s">
+    </row>
+    <row r="59" spans="1:11" s="1" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A59" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" s="1" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A59" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="C59" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F59" s="6">
         <v>1720</v>
@@ -2918,25 +2751,22 @@
       <c r="K59" s="8">
         <v>11.759898486526399</v>
       </c>
-      <c r="L59" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" s="1" customFormat="1" ht="14.25" customHeight="1">
+    </row>
+    <row r="60" spans="1:11" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="A60" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F60" s="6">
         <v>185</v>
@@ -2956,25 +2786,22 @@
       <c r="K60" s="8">
         <v>92.301555644336204</v>
       </c>
-      <c r="L60" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" s="1" customFormat="1" ht="14.25" customHeight="1">
+    </row>
+    <row r="61" spans="1:11" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="A61" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B61" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C61" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="D61" s="4" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F61" s="6">
         <v>648</v>
@@ -2994,25 +2821,22 @@
       <c r="K61" s="8">
         <v>45.04</v>
       </c>
-      <c r="L61" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" s="1" customFormat="1" ht="14.25" customHeight="1">
+    </row>
+    <row r="62" spans="1:11" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="A62" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F62" s="6">
         <v>654</v>
@@ -3032,25 +2856,22 @@
       <c r="K62" s="8">
         <v>16.8684210526316</v>
       </c>
-      <c r="L62" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" s="1" customFormat="1" ht="14.25" customHeight="1">
+    </row>
+    <row r="63" spans="1:11" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="A63" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F63" s="6">
         <v>1246</v>
@@ -3070,25 +2891,22 @@
       <c r="K63" s="8">
         <v>9.7647584973166399</v>
       </c>
-      <c r="L63" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" s="1" customFormat="1" ht="14.25" customHeight="1">
+    </row>
+    <row r="64" spans="1:11" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="A64" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F64" s="6">
         <v>163</v>
@@ -3108,25 +2926,22 @@
       <c r="K64" s="8">
         <v>10.096017069701301</v>
       </c>
-      <c r="L64" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="65" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A65" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F65" s="6">
         <v>139</v>
@@ -3146,25 +2961,22 @@
       <c r="K65" s="8">
         <v>12.6306913996627</v>
       </c>
-      <c r="L65" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="66" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A66" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="C66" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C66" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="D66" s="4" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F66" s="6">
         <v>398</v>
@@ -3184,25 +2996,22 @@
       <c r="K66" s="8">
         <v>1.76056338028169</v>
       </c>
-      <c r="L66" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="67" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A67" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B67" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="C67" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F67" s="6">
         <v>761</v>
@@ -3222,25 +3031,22 @@
       <c r="K67" s="8">
         <v>2.8479838709677399</v>
       </c>
-      <c r="L67" s="9" t="s">
+    </row>
+    <row r="68" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A68" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B68" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A68" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="C68" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F68" s="6">
         <v>1522</v>
@@ -3260,25 +3066,22 @@
       <c r="K68" s="8">
         <v>2.0631700956244599</v>
       </c>
-      <c r="L68" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="69" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A69" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F69" s="6">
         <v>141</v>
@@ -3298,25 +3101,22 @@
       <c r="K69" s="8">
         <v>3.3552631578947398</v>
       </c>
-      <c r="L69" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="70" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A70" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B70" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C70" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="D70" s="4" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F70" s="6">
         <v>558</v>
@@ -3336,25 +3136,22 @@
       <c r="K70" s="8">
         <v>4.5625</v>
       </c>
-      <c r="L70" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="71" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A71" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F71" s="6">
         <v>580</v>
@@ -3374,25 +3171,22 @@
       <c r="K71" s="8">
         <v>2.2648809523809499</v>
       </c>
-      <c r="L71" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="72" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A72" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F72" s="6">
         <v>1051</v>
@@ -3412,25 +3206,22 @@
       <c r="K72" s="8">
         <v>1.4910536779324099</v>
       </c>
-      <c r="L72" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="73" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A73" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F73" s="6">
         <v>116</v>
@@ -3450,25 +3241,22 @@
       <c r="K73" s="8">
         <v>1.0179227941176501</v>
       </c>
-      <c r="L73" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="74" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A74" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F74" s="6">
         <v>107</v>
@@ -3488,25 +3276,22 @@
       <c r="K74" s="8">
         <v>1.80439330543933</v>
       </c>
-      <c r="L74" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" s="1" customFormat="1" ht="14.25" customHeight="1">
+    </row>
+    <row r="75" spans="1:11" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="A75" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B75" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="C75" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C75" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="D75" s="4" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F75" s="6">
         <v>233</v>
@@ -3526,25 +3311,22 @@
       <c r="K75" s="8">
         <v>2.2447368421052598</v>
       </c>
-      <c r="L75" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="76" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A76" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B76" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="C76" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C76" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="D76" s="4" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F76" s="6">
         <v>308</v>
@@ -3564,25 +3346,22 @@
       <c r="K76" s="8">
         <v>10.4347826086957</v>
       </c>
-      <c r="L76" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="77" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A77" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B77" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="C77" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C77" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="D77" s="4" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F77" s="6">
         <v>1</v>
@@ -3602,25 +3381,22 @@
       <c r="K77" s="8">
         <v>7.2115384615384602E-3</v>
       </c>
-      <c r="L77" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="78" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A78" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B78" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B78" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="C78" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F78" s="6">
         <v>569</v>
@@ -3640,25 +3416,22 @@
       <c r="K78" s="8">
         <v>1.99734042553191</v>
       </c>
-      <c r="L78" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="79" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A79" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B79" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B79" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="C79" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F79" s="6">
         <v>523</v>
@@ -3678,25 +3451,22 @@
       <c r="K79" s="8">
         <v>10.6132075471698</v>
       </c>
-      <c r="L79" s="9" t="s">
+    </row>
+    <row r="80" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A80" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B80" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A80" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="C80" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F80" s="6">
         <v>5</v>
@@ -3716,25 +3486,22 @@
       <c r="K80" s="8">
         <v>0.28824285178457998</v>
       </c>
-      <c r="L80" s="9" t="s">
+    </row>
+    <row r="81" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A81" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B81" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A81" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="C81" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F81" s="6">
         <v>1007</v>
@@ -3754,25 +3521,22 @@
       <c r="K81" s="8">
         <v>0.89849624060150401</v>
       </c>
-      <c r="L81" s="9" t="s">
+    </row>
+    <row r="82" spans="1:11" s="1" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A82" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B82" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" s="1" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A82" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="C82" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F82" s="6">
         <v>750</v>
@@ -3792,25 +3556,22 @@
       <c r="K82" s="8">
         <v>1.6487751169832101</v>
       </c>
-      <c r="L82" s="9" t="s">
+    </row>
+    <row r="83" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A83" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B83" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A83" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="C83" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F83" s="6">
         <v>614</v>
@@ -3830,25 +3591,22 @@
       <c r="K83" s="8">
         <v>0.30542000372508799</v>
       </c>
-      <c r="L83" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="84" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A84" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F84" s="6">
         <v>107</v>
@@ -3868,25 +3626,22 @@
       <c r="K84" s="8">
         <v>1.7750299162372301</v>
       </c>
-      <c r="L84" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="85" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A85" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F85" s="6">
         <v>86</v>
@@ -3906,25 +3661,22 @@
       <c r="K85" s="8">
         <v>9.5851615476810608</v>
       </c>
-      <c r="L85" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="86" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A86" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B86" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C86" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="D86" s="4" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F86" s="6">
         <v>456</v>
@@ -3944,25 +3696,22 @@
       <c r="K86" s="8">
         <v>2.0528634361233502</v>
       </c>
-      <c r="L86" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="87" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A87" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B87" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C87" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="D87" s="4" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F87" s="6">
         <v>417</v>
@@ -3982,25 +3731,22 @@
       <c r="K87" s="8">
         <v>6.9602272727272698</v>
       </c>
-      <c r="L87" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="88" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A88" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B88" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C88" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="D88" s="4" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F88" s="6">
         <v>1</v>
@@ -4020,25 +3766,22 @@
       <c r="K88" s="8">
         <v>0.946805079620332</v>
       </c>
-      <c r="L88" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="89" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A89" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F89" s="6">
         <v>485</v>
@@ -4058,25 +3801,22 @@
       <c r="K89" s="8">
         <v>1.52364273204904</v>
       </c>
-      <c r="L89" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="90" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A90" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F90" s="6">
         <v>310</v>
@@ -4096,25 +3836,22 @@
       <c r="K90" s="8">
         <v>2.9134860050890601</v>
       </c>
-      <c r="L90" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="91" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A91" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F91" s="6">
         <v>629</v>
@@ -4134,25 +3871,22 @@
       <c r="K91" s="8">
         <v>0.86805555555555602</v>
       </c>
-      <c r="L91" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="92" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A92" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F92" s="6">
         <v>340</v>
@@ -4172,25 +3906,22 @@
       <c r="K92" s="8">
         <v>1.6469594594594601</v>
       </c>
-      <c r="L92" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="93" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A93" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F93" s="6">
         <v>39</v>
@@ -4210,25 +3941,22 @@
       <c r="K93" s="8">
         <v>0.38520801232665602</v>
       </c>
-      <c r="L93" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="94" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A94" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F94" s="6">
         <v>63</v>
@@ -4248,25 +3976,22 @@
       <c r="K94" s="8">
         <v>1.68539325842697</v>
       </c>
-      <c r="L94" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" s="1" customFormat="1" ht="14.25" customHeight="1">
+    </row>
+    <row r="95" spans="1:11" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="A95" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F95" s="6">
         <v>28</v>
@@ -4286,25 +4011,22 @@
       <c r="K95" s="8">
         <v>0.31289111389236601</v>
       </c>
-      <c r="L95" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="96" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A96" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F96" s="6">
         <v>61</v>
@@ -4324,25 +4046,22 @@
       <c r="K96" s="8">
         <v>6.2380952380952399</v>
       </c>
-      <c r="L96" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" s="2" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="97" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1">
       <c r="A97" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B97" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B97" s="4" t="s">
+      <c r="C97" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C97" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="D97" s="4" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F97" s="6">
         <v>87</v>
@@ -4362,25 +4081,22 @@
       <c r="K97" s="8">
         <v>0.61728395061728403</v>
       </c>
-      <c r="L97" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" s="2" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="98" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1">
       <c r="A98" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B98" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="C98" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C98" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="D98" s="4" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F98" s="6">
         <v>1</v>
@@ -4400,25 +4116,22 @@
       <c r="K98" s="8">
         <v>0.216684782608696</v>
       </c>
-      <c r="L98" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" s="2" customFormat="1" ht="14.25" customHeight="1">
+    </row>
+    <row r="99" spans="1:11" s="2" customFormat="1" ht="14.25" customHeight="1">
       <c r="A99" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B99" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B99" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="C99" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F99" s="6">
         <v>115</v>
@@ -4438,25 +4151,22 @@
       <c r="K99" s="8">
         <v>0.65789473684210498</v>
       </c>
-      <c r="L99" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" s="2" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="100" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1">
       <c r="A100" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B100" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B100" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="C100" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F100" s="6">
         <v>1</v>
@@ -4476,25 +4186,22 @@
       <c r="K100" s="8">
         <v>3.71287128712871</v>
       </c>
-      <c r="L100" s="9" t="s">
+    </row>
+    <row r="101" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A101" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B101" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" s="2" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A101" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="C101" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F101" s="6">
         <v>2</v>
@@ -4514,25 +4221,22 @@
       <c r="K101" s="8">
         <v>0.106188816990211</v>
       </c>
-      <c r="L101" s="9" t="s">
+    </row>
+    <row r="102" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A102" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B102" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" s="2" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A102" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="C102" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F102" s="6">
         <v>9</v>
@@ -4552,25 +4256,22 @@
       <c r="K102" s="8">
         <v>1.5272556390977401</v>
       </c>
-      <c r="L102" s="9" t="s">
+    </row>
+    <row r="103" spans="1:11" s="2" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A103" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B103" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" s="2" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A103" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="C103" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F103" s="6">
         <v>419</v>
@@ -4590,25 +4291,22 @@
       <c r="K103" s="8">
         <v>0.30532212885154097</v>
       </c>
-      <c r="L103" s="9" t="s">
+    </row>
+    <row r="104" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A104" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B104" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" s="2" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A104" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="C104" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F104" s="6">
         <v>47</v>
@@ -4628,25 +4326,22 @@
       <c r="K104" s="8">
         <v>6.6112507249178396</v>
       </c>
-      <c r="L104" s="9" t="s">
+    </row>
+    <row r="105" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A105" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B105" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="105" spans="1:12" s="2" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A105" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="C105" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F105" s="6">
         <v>3</v>
@@ -4666,25 +4361,22 @@
       <c r="K105" s="8">
         <v>0.58767772511848304</v>
       </c>
-      <c r="L105" s="9" t="s">
+    </row>
+    <row r="106" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A106" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B106" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" s="2" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A106" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="C106" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F106" s="6">
         <v>6</v>
@@ -4704,25 +4396,22 @@
       <c r="K106" s="8">
         <v>17.165005537098601</v>
       </c>
-      <c r="L106" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" s="2" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="107" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1">
       <c r="A107" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F107" s="6">
         <v>20</v>
@@ -4742,25 +4431,22 @@
       <c r="K107" s="8">
         <v>0.81300813008130102</v>
       </c>
-      <c r="L107" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" s="2" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="108" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1">
       <c r="A108" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F108" s="6">
         <v>1</v>
@@ -4780,25 +4466,22 @@
       <c r="K108" s="8">
         <v>6.4078282828282802</v>
       </c>
-      <c r="L108" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" s="2" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="109" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1">
       <c r="A109" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B109" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C109" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C109" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="D109" s="4" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F109" s="6">
         <v>111</v>
@@ -4818,25 +4501,22 @@
       <c r="K109" s="8">
         <v>0.66793893129770998</v>
       </c>
-      <c r="L109" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" s="2" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="110" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1">
       <c r="A110" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B110" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C110" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C110" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="D110" s="4" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F110" s="6">
         <v>15</v>
@@ -4856,25 +4536,22 @@
       <c r="K110" s="8">
         <v>18.518518518518501</v>
       </c>
-      <c r="L110" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" s="2" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="111" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1">
       <c r="A111" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B111" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C111" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C111" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="D111" s="4" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F111" s="6">
         <v>3</v>
@@ -4894,25 +4571,22 @@
       <c r="K111" s="8">
         <v>23.026315789473699</v>
       </c>
-      <c r="L111" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" s="2" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="112" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1">
       <c r="A112" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F112" s="6">
         <v>1</v>
@@ -4932,25 +4606,22 @@
       <c r="K112" s="8">
         <v>8.6436170212766008</v>
       </c>
-      <c r="L112" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" s="2" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="113" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1">
       <c r="A113" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F113" s="6">
         <v>58</v>
@@ -4970,25 +4641,22 @@
       <c r="K113" s="8">
         <v>0.397526501766785</v>
       </c>
-      <c r="L113" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" s="2" customFormat="1" ht="14.25" customHeight="1">
+    </row>
+    <row r="114" spans="1:11" s="2" customFormat="1" ht="14.25" customHeight="1">
       <c r="A114" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F114" s="6">
         <v>82</v>
@@ -5008,25 +4676,22 @@
       <c r="K114" s="8">
         <v>10.6339468302659</v>
       </c>
-      <c r="L114" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" s="2" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="115" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1">
       <c r="A115" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F115" s="6">
         <v>5</v>
@@ -5046,25 +4711,22 @@
       <c r="K115" s="8">
         <v>37.383177570093501</v>
       </c>
-      <c r="L115" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" s="2" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="116" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1">
       <c r="A116" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F116" s="6">
         <v>8</v>
@@ -5084,25 +4746,22 @@
       <c r="K116" s="8">
         <v>6.8441636582430796</v>
       </c>
-      <c r="L116" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" s="2" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="117" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1">
       <c r="A117" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F117" s="6">
         <v>299</v>
@@ -5122,25 +4781,22 @@
       <c r="K117" s="8">
         <v>0.84890426758938897</v>
       </c>
-      <c r="L117" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" s="2" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="118" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1">
       <c r="A118" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F118" s="6">
         <v>56</v>
@@ -5160,25 +4816,22 @@
       <c r="K118" s="8">
         <v>6.2735257214554601</v>
       </c>
-      <c r="L118" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" s="2" customFormat="1" ht="14.25" customHeight="1">
+    </row>
+    <row r="119" spans="1:11" s="2" customFormat="1" ht="14.25" customHeight="1">
       <c r="A119" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F119" s="6">
         <v>3</v>
@@ -5198,25 +4851,22 @@
       <c r="K119" s="8">
         <v>3.56632653061224</v>
       </c>
-      <c r="L119" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" s="2" customFormat="1" ht="14.25" customHeight="1">
+    </row>
+    <row r="120" spans="1:11" s="2" customFormat="1" ht="14.25" customHeight="1">
       <c r="A120" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F120" s="6">
         <v>68</v>
@@ -5236,25 +4886,22 @@
       <c r="K120" s="8">
         <v>0.51833976833976803</v>
       </c>
-      <c r="L120" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" s="2" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="121" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1">
       <c r="A121" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F121" s="6">
         <v>3</v>
@@ -5274,25 +4921,22 @@
       <c r="K121" s="8">
         <v>1.3787262872628701</v>
       </c>
-      <c r="L121" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" s="2" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="122" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1">
       <c r="A122" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F122" s="6">
         <v>45</v>
@@ -5312,25 +4956,22 @@
       <c r="K122" s="8">
         <v>7.8333333333333297E-2</v>
       </c>
-      <c r="L122" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" s="2" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="123" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1">
       <c r="A123" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F123" s="6">
         <v>2</v>
@@ -5350,25 +4991,22 @@
       <c r="K123" s="8">
         <v>3.4418022528160201</v>
       </c>
-      <c r="L123" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" s="2" customFormat="1" ht="13.5" customHeight="1">
+    </row>
+    <row r="124" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1">
       <c r="A124" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F124" s="6">
         <v>3</v>
@@ -5388,14 +5026,11 @@
       <c r="K124" s="8">
         <v>4.4204322200392898</v>
       </c>
-      <c r="L124" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" s="2" customFormat="1" ht="14.25" customHeight="1"/>
-    <row r="126" spans="1:12" s="2" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="127" spans="1:12" s="2" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="128" spans="1:12" s="2" customFormat="1" ht="13.5" customHeight="1"/>
+    </row>
+    <row r="125" spans="1:11" s="2" customFormat="1" ht="14.25" customHeight="1"/>
+    <row r="126" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1"/>
+    <row r="127" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1"/>
+    <row r="128" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1"/>
     <row r="129" s="2" customFormat="1" ht="13.5" customHeight="1"/>
     <row r="130" s="2" customFormat="1" ht="13.5" customHeight="1"/>
     <row r="131" s="2" customFormat="1" ht="13.5" customHeight="1"/>
@@ -5482,30 +5117,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:13" ht="70">
       <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="D1" s="4" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G1" s="6">
         <v>273</v>
@@ -5526,27 +5161,27 @@
         <v>14.501404494381999</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="70">
       <c r="A2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="D2" s="4" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="G2" s="6">
         <v>34</v>
@@ -5567,27 +5202,27 @@
         <v>21.116504854368898</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="70">
       <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="G3" s="6">
         <v>1</v>
@@ -5608,27 +5243,27 @@
         <v>0.12886597938144301</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="70">
       <c r="A4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="D4" s="4" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="G4" s="6">
         <v>1</v>
@@ -5649,27 +5284,27 @@
         <v>0.8</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="70">
       <c r="A5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="D5" s="4" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="G5" s="6">
         <v>13</v>
@@ -5690,27 +5325,27 @@
         <v>2.1329787234042601</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="70">
       <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="C6" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G6" s="6">
         <v>700</v>
@@ -5731,27 +5366,27 @@
         <v>30.525813953488399</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="70">
       <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="C7" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="G7" s="6">
         <v>100</v>
@@ -5772,27 +5407,27 @@
         <v>21.0674157303371</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="70">
       <c r="A8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="C8" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="G8" s="6">
         <v>1</v>
@@ -5813,27 +5448,27 @@
         <v>2.3148148148148098E-2</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="70">
       <c r="A9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="C9" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="F9" s="5" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="G9" s="6">
         <v>2</v>
@@ -5854,27 +5489,27 @@
         <v>2.1875</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="70">
       <c r="A10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="C10" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="G10" s="6">
         <v>3</v>
@@ -5895,27 +5530,27 @@
         <v>0.50675675675675702</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="70">
       <c r="A11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="C11" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="G11" s="6">
         <v>31</v>
@@ -5936,27 +5571,27 @@
         <v>0.88265306122449005</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="60">
       <c r="A12" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G12" s="6">
         <v>1120</v>
@@ -5977,27 +5612,27 @@
         <v>14.5386359672074</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="60">
       <c r="A13" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="G13" s="6">
         <v>1385</v>
@@ -6018,27 +5653,27 @@
         <v>30.838068181818201</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="60">
       <c r="A14" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="G14" s="6">
         <v>598</v>
@@ -6059,27 +5694,27 @@
         <v>11.4712558598569</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="60">
       <c r="A15" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="G15" s="6">
         <v>2</v>
@@ -6100,27 +5735,27 @@
         <v>4.6624393882879499E-2</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="60">
       <c r="A16" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D16" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="F16" s="5" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="G16" s="6">
         <v>227</v>
@@ -6141,27 +5776,27 @@
         <v>2.5133986324154498</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="30">
       <c r="A17" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="G17" s="6">
         <v>752</v>
@@ -6182,27 +5817,27 @@
         <v>32.0515574650913</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="30">
       <c r="A18" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="G18" s="6">
         <v>784</v>
@@ -6223,27 +5858,27 @@
         <v>8.0898876404494402</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="50">
       <c r="A19" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="G19" s="6">
         <v>164</v>
@@ -6264,27 +5899,27 @@
         <v>3.8246341147519698</v>
       </c>
       <c r="M19" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="30">
       <c r="A20" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D20" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>72</v>
       </c>
       <c r="G20" s="6">
         <v>96</v>
@@ -6305,27 +5940,27 @@
         <v>86.345046082949295</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="30">
       <c r="A21" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="G21" s="6">
         <v>95</v>
@@ -6346,27 +5981,27 @@
         <v>1.2938005390835601</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="30">
       <c r="A22" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="G22" s="6">
         <v>344</v>
@@ -6387,27 +6022,27 @@
         <v>2.1828171828171801</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="30">
       <c r="A23" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="G23" s="6">
         <v>92</v>
@@ -6428,27 +6063,27 @@
         <v>10.150375939849599</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="60">
       <c r="A24" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G24" s="6">
         <v>129</v>
@@ -6469,27 +6104,27 @@
         <v>33.938571998455899</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="60">
       <c r="A25" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="G25" s="6">
         <v>38</v>
@@ -6510,27 +6145,27 @@
         <v>52.3913043478261</v>
       </c>
       <c r="M25" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="60">
       <c r="A26" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D26" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="F26" s="5" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="G26" s="6">
         <v>8</v>
@@ -6551,27 +6186,27 @@
         <v>1.0282258064516101</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="40">
       <c r="A27" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="G27" s="6">
         <v>5</v>
@@ -6592,27 +6227,27 @@
         <v>0.63980263157894701</v>
       </c>
       <c r="M27" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="40">
       <c r="A28" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D28" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>72</v>
       </c>
       <c r="G28" s="6">
         <v>2</v>
@@ -6633,27 +6268,27 @@
         <v>0.912365376945938</v>
       </c>
       <c r="M28" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="40">
       <c r="A29" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="G29" s="6">
         <v>1</v>
@@ -6674,27 +6309,27 @@
         <v>8.2236842105263205E-2</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="40">
       <c r="A30" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="G30" s="6">
         <v>1</v>
@@ -6715,27 +6350,27 @@
         <v>2.3734177215189899E-2</v>
       </c>
       <c r="M30" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="60">
       <c r="A31" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="D31" s="4" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G31" s="6">
         <v>574</v>
@@ -6756,27 +6391,27 @@
         <v>29.141156462584998</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="60">
       <c r="A32" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="D32" s="4" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="G32" s="6">
         <v>138</v>
@@ -6797,27 +6432,27 @@
         <v>18.526785714285701</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="60">
       <c r="A33" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="D33" s="4" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="G33" s="6">
         <v>1</v>
@@ -6838,27 +6473,27 @@
         <v>2.9947916666666701</v>
       </c>
       <c r="M33" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="60">
       <c r="A34" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="D34" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E34" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="F34" s="5" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="G34" s="6">
         <v>90</v>
@@ -6879,27 +6514,27 @@
         <v>4.4872299691771502</v>
       </c>
       <c r="M34" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="40">
       <c r="A35" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="D35" s="4" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="G35" s="6">
         <v>2</v>
@@ -6920,27 +6555,27 @@
         <v>1.2842465753424701</v>
       </c>
       <c r="M35" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="40">
       <c r="A36" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="D36" s="4" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="G36" s="6">
         <v>20</v>
@@ -6961,27 +6596,27 @@
         <v>0.47204968944099401</v>
       </c>
       <c r="M36" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="40">
       <c r="A37" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="D37" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F37" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>72</v>
       </c>
       <c r="G37" s="6">
         <v>1</v>
@@ -7002,27 +6637,27 @@
         <v>0.36722488038277501</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="40">
       <c r="A38" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B38" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="D38" s="4" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="G38" s="6">
         <v>1</v>
@@ -7043,27 +6678,27 @@
         <v>5.4347826086956499E-2</v>
       </c>
       <c r="M38" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="60">
       <c r="A39" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G39" s="6">
         <v>603</v>
@@ -7084,27 +6719,27 @@
         <v>18.814217443249699</v>
       </c>
       <c r="M39" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="60">
       <c r="A40" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="G40" s="6">
         <v>259</v>
@@ -7125,27 +6760,27 @@
         <v>15.369318181818199</v>
       </c>
       <c r="M40" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="60">
       <c r="A41" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="G41" s="6">
         <v>12</v>
@@ -7166,27 +6801,27 @@
         <v>4.6511627906976702</v>
       </c>
       <c r="M41" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="60">
       <c r="A42" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D42" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E42" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E42" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="F42" s="5" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="G42" s="6">
         <v>82</v>
@@ -7207,27 +6842,27 @@
         <v>2.7982954545454501</v>
       </c>
       <c r="M42" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="40">
       <c r="A43" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="G43" s="6">
         <v>21</v>
@@ -7248,27 +6883,27 @@
         <v>16.085106382978701</v>
       </c>
       <c r="M43" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="40">
       <c r="A44" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="G44" s="6">
         <v>38</v>
@@ -7289,27 +6924,27 @@
         <v>7.6219512195121997</v>
       </c>
       <c r="M44" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="50">
       <c r="A45" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="G45" s="6">
         <v>2</v>
@@ -7330,27 +6965,27 @@
         <v>0.20576131687242799</v>
       </c>
       <c r="M45" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="40">
       <c r="A46" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D46" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F46" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>72</v>
       </c>
       <c r="G46" s="6">
         <v>8</v>
@@ -7371,27 +7006,27 @@
         <v>7.8864353312302802</v>
       </c>
       <c r="M46" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="40">
       <c r="A47" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="G47" s="6">
         <v>2</v>
@@ -7412,27 +7047,27 @@
         <v>4.7361299052773997</v>
       </c>
       <c r="M47" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="40">
       <c r="A48" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="G48" s="6">
         <v>12</v>
@@ -7453,27 +7088,27 @@
         <v>1.78958051420839</v>
       </c>
       <c r="M48" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="40">
       <c r="A49" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="G49" s="6">
         <v>15</v>
@@ -7494,27 +7129,27 @@
         <v>3.78440366972477</v>
       </c>
       <c r="M49" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="60">
       <c r="A50" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G50" s="6">
         <v>822</v>
@@ -7535,27 +7170,27 @@
         <v>16.264619883040901</v>
       </c>
       <c r="M50" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="60">
       <c r="A51" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="G51" s="6">
         <v>939</v>
@@ -7576,27 +7211,27 @@
         <v>25.9332023575639</v>
       </c>
       <c r="M51" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="60">
       <c r="A52" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="G52" s="6">
         <v>297</v>
@@ -7617,27 +7252,27 @@
         <v>12.336114421930899</v>
       </c>
       <c r="M52" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="60">
       <c r="A53" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D53" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E53" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E53" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="F53" s="5" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="G53" s="6">
         <v>129</v>
@@ -7658,27 +7293,27 @@
         <v>2.0977295162882501</v>
       </c>
       <c r="M53" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="40">
       <c r="A54" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="G54" s="6">
         <v>375</v>
@@ -7699,27 +7334,27 @@
         <v>45.3024453024453</v>
       </c>
       <c r="M54" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="40">
       <c r="A55" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="G55" s="6">
         <v>441</v>
@@ -7740,27 +7375,27 @@
         <v>11.867297710839599</v>
       </c>
       <c r="M55" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="50">
       <c r="A56" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="G56" s="6">
         <v>30</v>
@@ -7781,27 +7416,27 @@
         <v>4.9277266754270697</v>
       </c>
       <c r="M56" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="40">
       <c r="A57" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D57" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F57" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>72</v>
       </c>
       <c r="G57" s="6">
         <v>77</v>
@@ -7822,27 +7457,27 @@
         <v>59.781771501925498</v>
       </c>
       <c r="M57" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="40">
       <c r="A58" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="G58" s="6">
         <v>36</v>
@@ -7863,27 +7498,27 @@
         <v>4.7368421052631602</v>
       </c>
       <c r="M58" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="40">
       <c r="A59" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="G59" s="6">
         <v>161</v>
@@ -7904,27 +7539,27 @@
         <v>4.5581896551724101</v>
       </c>
       <c r="M59" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="40">
       <c r="A60" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="G60" s="6">
         <v>24</v>
@@ -7945,27 +7580,27 @@
         <v>18.581081081081098</v>
       </c>
       <c r="M60" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="60">
       <c r="A61" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G61" s="6">
         <v>64</v>
@@ -7986,27 +7621,27 @@
         <v>6.5789473684210504</v>
       </c>
       <c r="M61" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="60">
       <c r="A62" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="G62" s="6">
         <v>139</v>
@@ -8027,27 +7662,27 @@
         <v>23.9325842696629</v>
       </c>
       <c r="M62" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="60">
       <c r="A63" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="G63" s="6">
         <v>46</v>
@@ -8068,27 +7703,27 @@
         <v>8.9185393258426995</v>
       </c>
       <c r="M63" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="60">
       <c r="A64" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D64" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E64" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E64" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="F64" s="5" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="G64" s="6">
         <v>17</v>
@@ -8109,27 +7744,27 @@
         <v>1.7073170731707299</v>
       </c>
       <c r="M64" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:13" ht="40">
       <c r="A65" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="G65" s="6">
         <v>32</v>
@@ -8150,27 +7785,27 @@
         <v>29.802890932982901</v>
       </c>
       <c r="M65" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:13" ht="40">
       <c r="A66" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="G66" s="6">
         <v>53</v>
@@ -8191,27 +7826,27 @@
         <v>7.1721311475409797</v>
       </c>
       <c r="M66" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="50">
       <c r="A67" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="G67" s="6">
         <v>9</v>
@@ -8232,27 +7867,27 @@
         <v>0.53159173754556499</v>
       </c>
       <c r="M67" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="40">
       <c r="A68" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D68" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F68" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>72</v>
       </c>
       <c r="G68" s="6">
         <v>6</v>
@@ -8273,27 +7908,27 @@
         <v>8.9757127771889795</v>
       </c>
       <c r="M68" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="40">
       <c r="A69" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="G69" s="6">
         <v>4</v>
@@ -8314,27 +7949,27 @@
         <v>0.45565006075334102</v>
       </c>
       <c r="M69" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="40">
       <c r="A70" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="G70" s="6">
         <v>19</v>
@@ -8355,27 +7990,27 @@
         <v>0.89527027027026995</v>
       </c>
       <c r="M70" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="60">
       <c r="A71" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G71" s="6">
         <v>46</v>
@@ -8396,27 +8031,27 @@
         <v>19.440696608616001</v>
       </c>
       <c r="M71" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:13" ht="60">
       <c r="A72" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="G72" s="6">
         <v>120</v>
@@ -8437,27 +8072,27 @@
         <v>21.922428330522798</v>
       </c>
       <c r="M72" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="60">
       <c r="A73" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="G73" s="6">
         <v>33</v>
@@ -8478,27 +8113,27 @@
         <v>9.6569250317661997</v>
       </c>
       <c r="M73" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="60">
       <c r="A74" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D74" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E74" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E74" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="F74" s="5" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="G74" s="6">
         <v>15</v>
@@ -8519,27 +8154,27 @@
         <v>1.05008077544426</v>
       </c>
       <c r="M74" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:13" ht="40">
       <c r="A75" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="G75" s="6">
         <v>27</v>
@@ -8560,27 +8195,27 @@
         <v>16.223175965665199</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="40">
       <c r="A76" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="G76" s="6">
         <v>35</v>
@@ -8601,27 +8236,27 @@
         <v>5.7819383259911898</v>
       </c>
       <c r="M76" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="50">
       <c r="A77" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="G77" s="6">
         <v>10</v>
@@ -8642,27 +8277,27 @@
         <v>0.69735006973500702</v>
       </c>
       <c r="M77" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" spans="1:13" ht="40">
       <c r="A78" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D78" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F78" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>72</v>
       </c>
       <c r="G78" s="6">
         <v>1</v>
@@ -8683,27 +8318,27 @@
         <v>0.971829890895898</v>
       </c>
       <c r="M78" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="40">
       <c r="A79" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="G79" s="6">
         <v>6</v>
@@ -8724,27 +8359,27 @@
         <v>0.97200622083981303</v>
       </c>
       <c r="M79" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="40">
       <c r="A80" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="G80" s="6">
         <v>16</v>
@@ -8765,27 +8400,27 @@
         <v>1.9919168591223999</v>
       </c>
       <c r="M80" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" spans="1:13" ht="40">
       <c r="A81" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="G81" s="6">
         <v>1</v>
@@ -8806,7 +8441,7 @@
         <v>3.35912052117264</v>
       </c>
       <c r="M81" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
